--- a/docs/requirement_analysis/要件定義.xlsx
+++ b/docs/requirement_analysis/要件定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\rde2\gitlab\RDE_XRD\docs\requirement_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\rde2\github\RDE_XRD\docs\requirement_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2CCC31-5549-44F6-BE0D-7F1DD8EE1CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82F23B6-DD2E-41B3-ABD6-5FA6E0C9CD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要件定義（手入力 メタデータ項目リスト）_bak" sheetId="15" state="hidden" r:id="rId1"/>
@@ -70,10 +70,21 @@
     <definedName name="物質タイプ" localSheetId="5">'[5]Material types'!$J$17:$T$17</definedName>
     <definedName name="物質タイプ">'[6]Material types'!$J$17:$T$17</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -88,38 +99,20 @@
   <commentList>
     <comment ref="F26" authorId="0" shapeId="0" xr:uid="{8EC9289B-E89B-C54A-AF5E-A9CAB7783195}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Yu Gothic"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[スレッド化されたコメント]
+        <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
     「スパイク除去/spike removal」などとするのが良いでしょう。（特異点除去という言葉は物理学上かなり特定の意味を持つ言葉で、今回の処理はそれに当たらないため）
 返信:
 OKです。</t>
-        </r>
       </text>
     </comment>
     <comment ref="F27" authorId="1" shapeId="0" xr:uid="{296B8175-6133-1340-B050-FB33F3C0CC15}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Yu Gothic"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[スレッド化されたコメント]
+        <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
     「取得」というか、「特出し表示」？　取得でも良いですが、一応議論したく</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -137,15 +130,7 @@
   <commentList>
     <comment ref="L27" authorId="0" shapeId="0" xr:uid="{AD545E9C-6EAD-7444-868D-1DA9DDED3D54}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Yu Gothic"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[スレッド化されたコメント]
+        <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
     数値型に固執させるなら、サンプル幅・サンプル長さ・サンプル厚さの3項目に分ける必要が出てきますか？
@@ -153,56 +138,29 @@
 はい、そう思います。DX的にそうするのか、現場の実情に合わせてこのようにするのか、コメント欄（SAMPLE_COMMENT）に特別なルールを設けてSAMPLE_SIZEやSAMPLE_VOLUMEに計算してマッピングするか、などが考えられると思います。
 送り状にこの3つの項目を持たせようと思っていますが、それとの関係も検討必要です。
 DXにこだわりすぎて、実情に合わないことをやっても仕方ないと思いますので悩みます。</t>
-        </r>
       </text>
     </comment>
     <comment ref="F36" authorId="1" shapeId="0" xr:uid="{14C21C5E-7A44-AA48-B84A-2B7A0F5A94D8}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Yu Gothic"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[スレッド化されたコメント]
+        <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
     "coercivity" のようなちゃんとした英語名ではなく、記号を英語名扱いで格納するということでいいなら、これでOKです。この下のセルも同様
 返信:
 確かにそうですね。基本的に略語は使用しない、という原則で考えていますが、磁性分野では常識な語彙なのでOKと考えるか、ということですね。</t>
-        </r>
       </text>
     </comment>
     <comment ref="H37" authorId="2" shapeId="0" xr:uid="{C11FE378-AC52-5844-93E3-10FA1B4B2ECC}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Yu Gothic"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[スレッド化されたコメント]
+        <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
     emuは標準単位系ではないので、高橋さん用途には良いとしても、汎用としては別の単位に換算すべきな気がする</t>
-        </r>
       </text>
     </comment>
     <comment ref="F39" authorId="3" shapeId="0" xr:uid="{EFCB1198-F542-704F-9335-CDD4A0F5BC07}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Yu Gothic"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[スレッド化されたコメント]
+        <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
     Br per volume か？
@@ -222,7 +180,6 @@
 高橋さんのメタは
 「残留磁化x膜厚(memu):3.92e-03」
 となっており、残留磁化はBrを使用しています。整理必要かもしれません。</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -230,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="658">
   <si>
     <t>仕様として固定されている項目</t>
     <rPh sb="0" eb="2">
@@ -3135,7 +3092,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>scanning_mode_if_not_exist</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキャンモード (ファイルに設定がない場合)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Scanning mode (If not exist)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2Theta-Theta</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>NIMS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>要件定義（手入力 メタデータ項目リスト）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキャンモード (ファイルに設定がない場合)追加</t>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -8776,9 +8760,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BE4CE-9366-40E8-8DF1-D4B9CF138C00}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -9502,7 +9488,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" ht="18.75" customHeight="1">
+    <row r="32" spans="1:12">
       <c r="A32" s="174"/>
       <c r="B32" s="154"/>
       <c r="C32" s="93" t="s">
@@ -9524,48 +9510,46 @@
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" ht="18.75" customHeight="1">
       <c r="A33" s="174"/>
-      <c r="B33" s="154" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="91" t="str">
-        <f>"common_"&amp;SUBSTITUTE(LOWER(TRIM(G33))," ","_")</f>
-        <v>common_data_type</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="91" t="s">
+        <v>651</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="21" t="s">
-        <v>99</v>
+        <v>652</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H33" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="H33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="21"/>
       <c r="J33" s="23"/>
-      <c r="K33" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="L33" s="24"/>
-      <c r="N33" s="37"/>
+      <c r="K33" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="L33" s="33"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="174"/>
-      <c r="B34" s="154"/>
+      <c r="B34" s="154" t="s">
+        <v>98</v>
+      </c>
       <c r="C34" s="91" t="str">
-        <f t="shared" ref="C34:C36" si="3">"common_"&amp;SUBSTITUTE(LOWER(TRIM(G34))," ","_")</f>
-        <v>common_data_origin</v>
+        <f>"common_"&amp;SUBSTITUTE(LOWER(TRIM(G34))," ","_")</f>
+        <v>common_data_type</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>21</v>
@@ -9573,7 +9557,7 @@
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
       <c r="K34" s="24" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="L34" s="24"/>
       <c r="N34" s="37"/>
@@ -9582,16 +9566,16 @@
       <c r="A35" s="174"/>
       <c r="B35" s="154"/>
       <c r="C35" s="91" t="str">
-        <f t="shared" si="3"/>
-        <v>common_technical_category</v>
+        <f t="shared" ref="C35:C37" si="3">"common_"&amp;SUBSTITUTE(LOWER(TRIM(G35))," ","_")</f>
+        <v>common_data_origin</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>21</v>
@@ -9599,7 +9583,7 @@
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
       <c r="K35" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L35" s="24"/>
       <c r="N35" s="37"/>
@@ -9609,75 +9593,75 @@
       <c r="B36" s="154"/>
       <c r="C36" s="91" t="str">
         <f t="shared" si="3"/>
-        <v>common_reference</v>
+        <v>common_technical_category</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
-      <c r="K36" s="24"/>
+      <c r="K36" s="24" t="s">
+        <v>279</v>
+      </c>
       <c r="L36" s="24"/>
       <c r="N36" s="37"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="174"/>
-      <c r="B37" s="154" t="s">
-        <v>110</v>
-      </c>
+      <c r="B37" s="154"/>
       <c r="C37" s="91" t="str">
-        <f>"measurement_"&amp;SUBSTITUTE(LOWER(TRIM(G37))," ","_")</f>
-        <v>measurement_method_category</v>
+        <f t="shared" si="3"/>
+        <v>common_reference</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
-      <c r="K37" s="125" t="s">
-        <v>362</v>
-      </c>
-      <c r="L37" s="126"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
       <c r="N37" s="37"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="174"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="94" t="str">
-        <f t="shared" ref="C38:C44" si="4">"measurement_"&amp;SUBSTITUTE(LOWER(TRIM(G38))," ","_")</f>
-        <v>measurement_method_sub-category</v>
-      </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>115</v>
+      <c r="B38" s="154" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="91" t="str">
+        <f>"measurement_"&amp;SUBSTITUTE(LOWER(TRIM(G38))," ","_")</f>
+        <v>measurement_method_category</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="H38" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="125" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L38" s="126"/>
       <c r="N38" s="37"/>
@@ -9686,24 +9670,26 @@
       <c r="A39" s="174"/>
       <c r="B39" s="154"/>
       <c r="C39" s="94" t="str">
-        <f t="shared" si="4"/>
-        <v>measurement_analysis_field</v>
+        <f t="shared" ref="C39:C45" si="4">"measurement_"&amp;SUBSTITUTE(LOWER(TRIM(G39))," ","_")</f>
+        <v>measurement_method_sub-category</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H39" s="21" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="K39" s="125" t="s">
+        <v>363</v>
+      </c>
+      <c r="L39" s="126"/>
       <c r="N39" s="37"/>
     </row>
     <row r="40" spans="1:14">
@@ -9711,23 +9697,23 @@
       <c r="B40" s="154"/>
       <c r="C40" s="94" t="str">
         <f t="shared" si="4"/>
-        <v>measurement_measurement_environment</v>
+        <v>measurement_analysis_field</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
       <c r="F40" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H40" s="21" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
       <c r="N40" s="37"/>
     </row>
     <row r="41" spans="1:14">
@@ -9735,15 +9721,15 @@
       <c r="B41" s="154"/>
       <c r="C41" s="94" t="str">
         <f t="shared" si="4"/>
-        <v>measurement_energy_level_transition_structure_etc._of_interest</v>
+        <v>measurement_measurement_environment</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
       <c r="F41" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H41" s="21" t="s">
         <v>21</v>
@@ -9754,84 +9740,108 @@
       <c r="L41" s="41"/>
       <c r="N41" s="37"/>
     </row>
-    <row r="42" spans="1:14" ht="93.75">
+    <row r="42" spans="1:14">
       <c r="A42" s="174"/>
       <c r="B42" s="154"/>
-      <c r="C42" s="143" t="str">
+      <c r="C42" s="94" t="str">
+        <f t="shared" si="4"/>
+        <v>measurement_energy_level_transition_structure_etc._of_interest</v>
+      </c>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="N42" s="37"/>
+    </row>
+    <row r="43" spans="1:14" ht="93.75">
+      <c r="A43" s="174"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="143" t="str">
         <f t="shared" si="4"/>
         <v>measurement_measured_date</v>
       </c>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="145" t="s">
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="145" t="s">
+      <c r="G43" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="145" t="s">
+      <c r="H43" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="147" t="s">
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="147" t="s">
         <v>612</v>
       </c>
-      <c r="L42" s="142" t="s">
+      <c r="L43" s="142" t="s">
         <v>641</v>
       </c>
-      <c r="N42" s="37"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="174"/>
-      <c r="B43" s="154"/>
-      <c r="C43" s="94" t="str">
+      <c r="N43" s="37"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="174"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="94" t="str">
         <f t="shared" si="4"/>
         <v>measurement_standardized_procedure</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="39" t="s">
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="G43" s="39" t="s">
+      <c r="G44" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="H44" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="N43" s="37"/>
-    </row>
-    <row r="44" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A44" s="174"/>
-      <c r="B44" s="154"/>
-      <c r="C44" s="92" t="str">
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="N44" s="37"/>
+    </row>
+    <row r="45" spans="1:14" ht="19.5" thickBot="1">
+      <c r="A45" s="174"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="92" t="str">
         <f t="shared" si="4"/>
         <v>measurement_instrumentation_site</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="25" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G45" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H45" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="N44" s="37"/>
-    </row>
-    <row r="45" spans="1:14" ht="19.5">
-      <c r="G45" s="42"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="N45" s="37"/>
+    </row>
+    <row r="46" spans="1:14" ht="19.5">
+      <c r="G46" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9839,10 +9849,10 @@
     <mergeCell ref="A5:B10"/>
     <mergeCell ref="A11:A25"/>
     <mergeCell ref="B11:B25"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="A26:A45"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="K5:L10">
@@ -9861,7 +9871,7 @@
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:L30 K33:L36 L37:L38 K39:L44">
+  <conditionalFormatting sqref="K30:L30 K34:L37 L38:L39 K40:L45">
     <cfRule type="expression" dxfId="3" priority="7">
       <formula>#REF!=1</formula>
     </cfRule>
@@ -9873,7 +9883,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:L5" xr:uid="{70676DEB-DDBC-4F96-80D9-BA0D31D1B004}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I25 H5:H44" xr:uid="{D4CAA165-6F3C-4035-B16A-373F74521D8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I25 H5:H27 H28:H45" xr:uid="{D4CAA165-6F3C-4035-B16A-373F74521D8B}">
       <formula1>"string,string[date],number,integer"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12221,7 +12231,7 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
@@ -12733,7 +12743,7 @@
         <v>45530</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="70" t="s">
@@ -12746,7 +12756,7 @@
         <v>45572</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>551</v>
@@ -12761,7 +12771,7 @@
         <v>45628</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>551</v>
@@ -12772,10 +12782,18 @@
       <c r="F7" s="71"/>
     </row>
     <row r="8" spans="2:7" s="64" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B8" s="72"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="72">
+        <v>46003</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>655</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>656</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>657</v>
+      </c>
       <c r="F8" s="71"/>
     </row>
     <row r="9" spans="2:7" s="64" customFormat="1" ht="18.75" customHeight="1">
@@ -13142,15 +13160,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101000ED353C60105F34DABBBF603193D9FD7" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ff96f1b83903b6ca69e21ae72ce65d29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e1b7570-88a0-44ee-ab1c-d900d3a9ef2f" xmlns:ns3="69806635-1477-418f-8922-2a2d0bbc39e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd34249053b4960b9f5dac26d98b1ad9" ns2:_="" ns3:_="">
     <xsd:import namespace="7e1b7570-88a0-44ee-ab1c-d900d3a9ef2f"/>
@@ -13327,7 +13336,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e1b7570-88a0-44ee-ab1c-d900d3a9ef2f">
@@ -13338,15 +13347,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F1080EF-91B6-417D-A249-69224D257C51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C04DD24-2E45-4DC0-B69F-E7DC5E36A116}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13365,7 +13375,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB043C42-5D59-4A30-92A0-5EA74B604AF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13374,4 +13384,12 @@
     <ds:schemaRef ds:uri="69806635-1477-418f-8922-2a2d0bbc39e0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F1080EF-91B6-417D-A249-69224D257C51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>